--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/solicitud_segundo.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/cartas/solicitud_segundo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SPP_UNNA_MAIN_02\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\cartas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1454043-384D-4DE7-9DE8-BE02AE6412D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E0E37-5AD8-49B1-8E2C-ECB363746787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Página6" sheetId="2" r:id="rId1"/>
@@ -232,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -345,11 +345,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -399,6 +412,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -423,9 +460,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,26 +475,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,7 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F762D7C9-2F65-48DC-8DE0-6EAA35D98E82}">
   <dimension ref="B5:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -804,30 +831,30 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
     </row>
@@ -839,110 +866,110 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="39"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="17"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="16" t="s">
         <v>11</v>
       </c>
@@ -958,10 +985,10 @@
       <c r="H16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="41"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
@@ -985,10 +1012,10 @@
       <c r="H17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="39"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -1002,25 +1029,25 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="47" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1043,38 +1070,38 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="4"/>
       <c r="H22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="J23" s="39" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="J23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="39"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
@@ -1088,65 +1115,55 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="35"/>
+      <c r="F26" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B27:C29"/>
@@ -1163,6 +1180,16 @@
     <mergeCell ref="F12:H14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
